--- a/PCB/PartsList.xlsx
+++ b/PCB/PartsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanb\source\repos\ECE_477\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4119af336ac6e8a0/Documents/GitHub/ECE_477/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{97378B5F-89DF-4BBF-9C18-42DAEEB739BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{97378B5F-89DF-4BBF-9C18-42DAEEB739BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95CA2DDB-D883-44B3-87F5-1CD495DF4312}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="285">
   <si>
     <t>Source:</t>
   </si>
@@ -736,9 +736,6 @@
     <t>Collated Components:</t>
   </si>
   <si>
-    <t>C1, C3, C13, C14, C25, C26</t>
-  </si>
-  <si>
     <t>C2, C4, C9</t>
   </si>
   <si>
@@ -866,13 +863,25 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/panjit-international-inc/PJA3428-R1-00001/14660268?s=N4IgTCBcDaIAoCkCCBmALGAHCAugXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM31CR60J476KE19L/2548176</t>
+  </si>
+  <si>
+    <t>C1, C3, C14, C25, C26</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM188R70J104KA01D/2612449</t>
+  </si>
+  <si>
+    <t>10 uF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1012,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1305,7 +1322,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1348,12 +1365,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1387,6 +1406,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1706,22 +1726,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.53125" customWidth="1"/>
     <col min="5" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="61.21875" customWidth="1"/>
+    <col min="7" max="7" width="61.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1757,7 @@
         <v>44851.564976851849</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1745,7 +1765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1761,12 +1781,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1835,7 +1855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -1852,7 +1872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +1889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>29</v>
       </c>
@@ -1886,7 +1906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1920,7 +1940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1937,7 +1957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>35</v>
       </c>
@@ -1954,7 +1974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -1971,7 +1991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +2008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -2005,7 +2025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -2022,7 +2042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -2039,7 +2059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>43</v>
       </c>
@@ -2056,7 +2076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -2073,7 +2093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -2090,7 +2110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -2107,7 +2127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -2124,7 +2144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>49</v>
       </c>
@@ -2141,7 +2161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -2158,7 +2178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>51</v>
       </c>
@@ -2175,7 +2195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -2209,7 +2229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -2226,7 +2246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>55</v>
       </c>
@@ -2243,7 +2263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>56</v>
       </c>
@@ -2260,7 +2280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>57</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -2294,7 +2314,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>63</v>
       </c>
@@ -2311,7 +2331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>68</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>72</v>
       </c>
@@ -2345,7 +2365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
         <v>76</v>
       </c>
@@ -2362,7 +2382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
         <v>78</v>
       </c>
@@ -2379,7 +2399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
         <v>80</v>
       </c>
@@ -2396,7 +2416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
         <v>88</v>
       </c>
@@ -2430,7 +2450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
         <v>89</v>
       </c>
@@ -2447,7 +2467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>90</v>
       </c>
@@ -2464,7 +2484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
         <v>94</v>
       </c>
@@ -2481,7 +2501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>98</v>
       </c>
@@ -2498,7 +2518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
         <v>102</v>
       </c>
@@ -2515,7 +2535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
         <v>107</v>
       </c>
@@ -2532,7 +2552,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
         <v>108</v>
       </c>
@@ -2549,7 +2569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
         <v>113</v>
       </c>
@@ -2566,7 +2586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
         <v>117</v>
       </c>
@@ -2583,7 +2603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
         <v>118</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
         <v>119</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
         <v>120</v>
       </c>
@@ -2634,7 +2654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C59" t="s">
         <v>122</v>
       </c>
@@ -2651,7 +2671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
         <v>124</v>
       </c>
@@ -2668,7 +2688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C61" t="s">
         <v>125</v>
       </c>
@@ -2685,7 +2705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C62" t="s">
         <v>126</v>
       </c>
@@ -2702,7 +2722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
         <v>128</v>
       </c>
@@ -2719,7 +2739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C64" t="s">
         <v>129</v>
       </c>
@@ -2736,7 +2756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
         <v>130</v>
       </c>
@@ -2753,7 +2773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
         <v>132</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C67" t="s">
         <v>134</v>
       </c>
@@ -2787,7 +2807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
         <v>135</v>
       </c>
@@ -2804,7 +2824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
         <v>137</v>
       </c>
@@ -2821,7 +2841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
         <v>138</v>
       </c>
@@ -2838,7 +2858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
         <v>139</v>
       </c>
@@ -2855,7 +2875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
         <v>140</v>
       </c>
@@ -2872,7 +2892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -2889,7 +2909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
         <v>143</v>
       </c>
@@ -2906,7 +2926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
         <v>144</v>
       </c>
@@ -2923,7 +2943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
         <v>145</v>
       </c>
@@ -2940,7 +2960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C77" t="s">
         <v>146</v>
       </c>
@@ -2957,7 +2977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
         <v>147</v>
       </c>
@@ -2974,7 +2994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
         <v>148</v>
       </c>
@@ -2991,7 +3011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
         <v>150</v>
       </c>
@@ -3008,7 +3028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
         <v>152</v>
       </c>
@@ -3025,7 +3045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
         <v>153</v>
       </c>
@@ -3042,7 +3062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
         <v>154</v>
       </c>
@@ -3059,7 +3079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
         <v>155</v>
       </c>
@@ -3076,7 +3096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
         <v>156</v>
       </c>
@@ -3093,7 +3113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
         <v>157</v>
       </c>
@@ -3110,7 +3130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
         <v>158</v>
       </c>
@@ -3127,7 +3147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
         <v>159</v>
       </c>
@@ -3144,7 +3164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
         <v>160</v>
       </c>
@@ -3161,7 +3181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
         <v>161</v>
       </c>
@@ -3178,7 +3198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C91" t="s">
         <v>162</v>
       </c>
@@ -3195,7 +3215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C92" t="s">
         <v>163</v>
       </c>
@@ -3212,7 +3232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
         <v>164</v>
       </c>
@@ -3229,7 +3249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
         <v>165</v>
       </c>
@@ -3246,7 +3266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
         <v>166</v>
       </c>
@@ -3263,7 +3283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
         <v>167</v>
       </c>
@@ -3280,7 +3300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
         <v>171</v>
       </c>
@@ -3297,7 +3317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C98" t="s">
         <v>172</v>
       </c>
@@ -3314,7 +3334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C99" t="s">
         <v>174</v>
       </c>
@@ -3331,7 +3351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C100" t="s">
         <v>178</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
         <v>182</v>
       </c>
@@ -3365,7 +3385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C102" t="s">
         <v>184</v>
       </c>
@@ -3382,7 +3402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C103" t="s">
         <v>186</v>
       </c>
@@ -3399,7 +3419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C104" t="s">
         <v>188</v>
       </c>
@@ -3416,7 +3436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C105" t="s">
         <v>190</v>
       </c>
@@ -3433,7 +3453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C106" t="s">
         <v>192</v>
       </c>
@@ -3450,7 +3470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C107" t="s">
         <v>194</v>
       </c>
@@ -3467,7 +3487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C108" t="s">
         <v>196</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C109" t="s">
         <v>198</v>
       </c>
@@ -3501,7 +3521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C110" t="s">
         <v>200</v>
       </c>
@@ -3518,7 +3538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C111" t="s">
         <v>202</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C112" t="s">
         <v>210</v>
       </c>
@@ -3561,7 +3581,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C113" t="s">
         <v>215</v>
       </c>
@@ -3584,7 +3604,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C114" t="s">
         <v>222</v>
       </c>
@@ -3598,7 +3618,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C115" t="s">
         <v>226</v>
       </c>
@@ -3624,7 +3644,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C116" t="s">
         <v>232</v>
       </c>
@@ -3641,7 +3661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C117" t="s">
         <v>236</v>
       </c>
@@ -3658,12 +3678,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -3677,13 +3697,13 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3691,19 +3711,19 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G124" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3711,19 +3731,19 @@
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D125" t="s">
         <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3731,19 +3751,19 @@
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D126" t="s">
         <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G126" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>4</v>
       </c>
@@ -3751,19 +3771,19 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3776,558 +3796,552 @@
       <c r="D128" t="s">
         <v>39</v>
       </c>
-      <c r="E128" t="s">
-        <v>257</v>
+      <c r="E128" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130">
         <v>6</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>4</v>
       </c>
-      <c r="C129" t="s">
-        <v>242</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C130" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" t="s">
         <v>44</v>
-      </c>
-      <c r="E129" t="s">
-        <v>258</v>
-      </c>
-      <c r="G129" t="s">
-        <v>23</v>
-      </c>
-      <c r="H129" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>7</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>46</v>
-      </c>
-      <c r="D130" t="s">
-        <v>39</v>
       </c>
       <c r="E130" t="s">
         <v>257</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D131" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E132" t="s">
+        <v>259</v>
       </c>
       <c r="G132" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D134" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D135" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D136" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G136" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>78</v>
+      </c>
+      <c r="D137" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>80</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D138" t="s">
         <v>81</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G138" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139">
         <v>15</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>3</v>
       </c>
-      <c r="C138" t="s">
-        <v>243</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C139" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" t="s">
         <v>85</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G139" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140">
         <v>16</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
-        <v>90</v>
-      </c>
-      <c r="D139" t="s">
-        <v>91</v>
-      </c>
-      <c r="G139" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>17</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D140" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G140" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>94</v>
+      </c>
+      <c r="D141" t="s">
+        <v>95</v>
+      </c>
+      <c r="G141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>18</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
         <v>98</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>99</v>
       </c>
-      <c r="E141" t="s">
-        <v>262</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="E142" t="s">
+        <v>261</v>
+      </c>
+      <c r="G142" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143">
         <v>19</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>2</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
+        <v>243</v>
+      </c>
+      <c r="D143" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="G143" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>20</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" t="s">
+        <v>109</v>
+      </c>
+      <c r="E144" t="s">
+        <v>260</v>
+      </c>
+      <c r="G144" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>21</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
         <v>244</v>
       </c>
-      <c r="D142" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142" t="s">
-        <v>281</v>
-      </c>
-      <c r="G142" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>20</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" t="s">
-        <v>109</v>
-      </c>
-      <c r="E143" t="s">
-        <v>261</v>
-      </c>
-      <c r="G143" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>21</v>
-      </c>
-      <c r="B144">
-        <v>8</v>
-      </c>
-      <c r="C144" t="s">
-        <v>245</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="D145" t="s">
         <v>114</v>
       </c>
-      <c r="E144" t="s">
-        <v>269</v>
-      </c>
-      <c r="G144" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="E145" t="s">
+        <v>268</v>
+      </c>
+      <c r="G145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146">
         <v>22</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>120</v>
-      </c>
-      <c r="D145" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" t="s">
-        <v>270</v>
-      </c>
-      <c r="G145" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>23</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" t="s">
+        <v>121</v>
+      </c>
+      <c r="E146" t="s">
+        <v>269</v>
+      </c>
+      <c r="G146" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>23</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
         <v>122</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>123</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E147" t="s">
+        <v>270</v>
+      </c>
+      <c r="G147" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>24</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>245</v>
+      </c>
+      <c r="D148" t="s">
+        <v>127</v>
+      </c>
+      <c r="E148" t="s">
         <v>271</v>
       </c>
-      <c r="G146" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>24</v>
-      </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>246</v>
-      </c>
-      <c r="D147" t="s">
-        <v>127</v>
-      </c>
-      <c r="E147" t="s">
-        <v>272</v>
-      </c>
-      <c r="G147" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="G148" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149">
         <v>25</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148" t="s">
-        <v>130</v>
-      </c>
-      <c r="D148" t="s">
-        <v>131</v>
-      </c>
-      <c r="E148" t="s">
-        <v>273</v>
-      </c>
-      <c r="G148" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>26</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149" t="s">
+        <v>130</v>
+      </c>
+      <c r="D149" t="s">
+        <v>131</v>
+      </c>
+      <c r="E149" t="s">
+        <v>272</v>
+      </c>
+      <c r="G149" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>26</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
         <v>132</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D150" t="s">
         <v>133</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E150" t="s">
+        <v>273</v>
+      </c>
+      <c r="G150" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>27</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>246</v>
+      </c>
+      <c r="D151" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" t="s">
         <v>274</v>
       </c>
-      <c r="G149" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>27</v>
-      </c>
-      <c r="B150">
-        <v>4</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="G151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>28</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
         <v>247</v>
       </c>
-      <c r="D150" t="s">
-        <v>136</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D152">
+        <v>470</v>
+      </c>
+      <c r="E152" t="s">
         <v>275</v>
       </c>
-      <c r="G150" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>28</v>
-      </c>
-      <c r="B151">
-        <v>6</v>
-      </c>
-      <c r="C151" t="s">
-        <v>248</v>
-      </c>
-      <c r="D151">
-        <v>470</v>
-      </c>
-      <c r="E151" t="s">
-        <v>276</v>
-      </c>
-      <c r="G151" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="G152" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153">
         <v>29</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>141</v>
-      </c>
-      <c r="D152" t="s">
-        <v>142</v>
-      </c>
-      <c r="E152" t="s">
-        <v>277</v>
-      </c>
-      <c r="G152" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>30</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D153" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E153" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G153" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>148</v>
+      </c>
+      <c r="D154" t="s">
+        <v>149</v>
+      </c>
+      <c r="E154" t="s">
+        <v>277</v>
+      </c>
+      <c r="G154" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>31</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
         <v>150</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
         <v>151</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E155" t="s">
+        <v>278</v>
+      </c>
+      <c r="G155" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>32</v>
+      </c>
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>248</v>
+      </c>
+      <c r="D156">
+        <v>22</v>
+      </c>
+      <c r="E156" t="s">
         <v>279</v>
       </c>
-      <c r="G154" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>32</v>
-      </c>
-      <c r="B155">
-        <v>14</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="G156" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>33</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
         <v>249</v>
-      </c>
-      <c r="D155">
-        <v>22</v>
-      </c>
-      <c r="E155" t="s">
-        <v>280</v>
-      </c>
-      <c r="G155" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>33</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="C156" t="s">
-        <v>250</v>
-      </c>
-      <c r="D156" t="s">
-        <v>168</v>
-      </c>
-      <c r="E156" t="s">
-        <v>265</v>
-      </c>
-      <c r="G156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>34</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>172</v>
       </c>
       <c r="D157" t="s">
         <v>168</v>
@@ -4336,370 +4350,393 @@
         <v>264</v>
       </c>
       <c r="G157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D158" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E158" t="s">
         <v>263</v>
       </c>
       <c r="G158" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E159" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G159" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E160" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G160" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D161" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G161" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D162" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E162" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G162" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E163" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G163" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D164" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E164" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G164" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G165" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D166" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E166" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G166" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E167" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G167" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D168" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E168" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G168" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D169" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G169" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D170" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E170" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G170" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D171" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E171" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G171" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D172" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E172" t="s">
         <v>266</v>
       </c>
       <c r="G172" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D173" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E173" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G173" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
+        <v>222</v>
+      </c>
+      <c r="D174" t="s">
+        <v>223</v>
+      </c>
+      <c r="E174" t="s">
+        <v>265</v>
+      </c>
+      <c r="G174" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>51</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
         <v>226</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>227</v>
       </c>
-      <c r="E174" t="s">
-        <v>266</v>
-      </c>
-      <c r="G174" t="s">
+      <c r="E175" t="s">
+        <v>265</v>
+      </c>
+      <c r="G175" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176">
         <v>52</v>
       </c>
-      <c r="B175">
+      <c r="B176">
         <v>2</v>
       </c>
-      <c r="C175" t="s">
-        <v>251</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="C176" t="s">
+        <v>250</v>
+      </c>
+      <c r="D176" t="s">
         <v>233</v>
       </c>
-      <c r="E175" t="s">
-        <v>268</v>
-      </c>
-      <c r="G175" t="s">
+      <c r="E176" t="s">
+        <v>267</v>
+      </c>
+      <c r="G176" t="s">
         <v>235</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E128" r:id="rId1" xr:uid="{14B7DA4D-3D81-4CAD-86E6-D6779618073B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PCB/PartsList.xlsx
+++ b/PCB/PartsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4119af336ac6e8a0/Documents/GitHub/ECE_477/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{97378B5F-89DF-4BBF-9C18-42DAEEB739BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95CA2DDB-D883-44B3-87F5-1CD495DF4312}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:40009_{97378B5F-89DF-4BBF-9C18-42DAEEB739BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89DA98D7-E93C-453C-A648-770BFD5EDBF2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="287">
   <si>
     <t>Source:</t>
   </si>
@@ -739,9 +739,6 @@
     <t>C2, C4, C9</t>
   </si>
   <si>
-    <t>C5, C6, C8, C10, C11, C20, C23, C24, C27, C28</t>
-  </si>
-  <si>
     <t>C7, C21, C22</t>
   </si>
   <si>
@@ -757,9 +754,6 @@
     <t>R1, R2, R3, R4, R7, R8, R11, R21</t>
   </si>
   <si>
-    <t>R9, R10, R14</t>
-  </si>
-  <si>
     <t>R15, R16, R24, R25</t>
   </si>
   <si>
@@ -790,9 +784,6 @@
     <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL31A106MAHNNNE/3886839</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL31A476MPHNNNE/3888721</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10C150JB81PNC/3887847</t>
   </si>
   <si>
@@ -805,9 +796,6 @@
     <t>https://www.digikey.com/en/products/detail/alpha-omega-semiconductor-inc/AO3401A/1855773</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/vishay-dale/IHLP1212BZERR56M11/2273365</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/nidec-copal-electronics/CUS-12TB/1124222</t>
   </si>
   <si>
@@ -838,9 +826,6 @@
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07100KL/726889</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0734K8L/727169</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07309KL/727149</t>
   </si>
   <si>
@@ -868,13 +853,34 @@
     <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM31CR60J476KE19L/2548176</t>
   </si>
   <si>
-    <t>C1, C3, C14, C25, C26</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM188R70J104KA01D/2612449</t>
   </si>
   <si>
-    <t>10 uF</t>
+    <t>100 nF</t>
+  </si>
+  <si>
+    <t>C5, C6, C8, C10, C11, C20, C23, C24, C28</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GRM188R60J106ME47D/965910</t>
+  </si>
+  <si>
+    <t>C1, C3, C25, C26, C27</t>
+  </si>
+  <si>
+    <t>R9, R14</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0201FR-07100KL/1948859</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0201FR-0735K7L?qs=1s%252BlIcjv25vUGlcpq10KvA%3D%3D</t>
+  </si>
+  <si>
+    <t>1uH</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/IHLP1212BZER1R0M11/2273368?s=N4IgTCBcDaIJIAkAyAFAjGDAhAWgUQCU0CAGAWTTRAF0BfIA</t>
   </si>
 </sst>
 </file>
@@ -1727,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="D122" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3697,7 +3703,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
@@ -3711,13 +3717,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G124" t="s">
         <v>23</v>
@@ -3737,7 +3743,7 @@
         <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
@@ -3751,13 +3757,13 @@
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="D126" t="s">
         <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G126" t="s">
         <v>23</v>
@@ -3771,13 +3777,13 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -3797,7 +3803,7 @@
         <v>39</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -3811,155 +3817,158 @@
         <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="G129" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A130">
-        <v>6</v>
-      </c>
       <c r="B130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>44</v>
-      </c>
-      <c r="E130" t="s">
-        <v>257</v>
+        <v>21</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="G130" t="s">
         <v>23</v>
       </c>
-      <c r="H130" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D131" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="H131" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G132" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E133" t="s">
+        <v>256</v>
       </c>
       <c r="G133" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G134" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D135" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G135" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D136" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G136" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G137" t="s">
         <v>71</v>
@@ -3967,167 +3976,164 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G138" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="D139" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G139" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G140" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D141" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G141" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D142" t="s">
-        <v>99</v>
-      </c>
-      <c r="E142" t="s">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="G142" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="D143" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G143" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="D144" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E144" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G144" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="D145" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E145" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G145" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="D146" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G146" t="s">
         <v>116</v>
@@ -4135,19 +4141,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E147" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G147" t="s">
         <v>116</v>
@@ -4155,59 +4161,53 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="D148" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E148" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G148" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A149">
-        <v>25</v>
-      </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E149" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G149" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A150">
-        <v>26</v>
-      </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D150" t="s">
-        <v>133</v>
-      </c>
-      <c r="E150" t="s">
-        <v>273</v>
+        <v>127</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G150" t="s">
         <v>116</v>
@@ -4215,19 +4215,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="D151" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E151" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G151" t="s">
         <v>116</v>
@@ -4235,19 +4235,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>247</v>
-      </c>
-      <c r="D152">
-        <v>470</v>
+        <v>132</v>
+      </c>
+      <c r="D152" t="s">
+        <v>133</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G152" t="s">
         <v>116</v>
@@ -4255,19 +4255,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="D153" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E153" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G153" t="s">
         <v>116</v>
@@ -4275,19 +4275,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
-      </c>
-      <c r="D154" t="s">
-        <v>149</v>
+        <v>245</v>
+      </c>
+      <c r="D154">
+        <v>470</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G154" t="s">
         <v>116</v>
@@ -4295,19 +4295,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D155" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E155" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G155" t="s">
         <v>116</v>
@@ -4315,19 +4315,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B156">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>248</v>
-      </c>
-      <c r="D156">
-        <v>22</v>
+        <v>148</v>
+      </c>
+      <c r="D156" t="s">
+        <v>149</v>
       </c>
       <c r="E156" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G156" t="s">
         <v>116</v>
@@ -4335,119 +4335,119 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="D157" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E157" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G157" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>172</v>
-      </c>
-      <c r="D158" t="s">
-        <v>168</v>
+        <v>246</v>
+      </c>
+      <c r="D158">
+        <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G158" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="D159" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E159" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G159" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D160" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E160" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G160" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E161" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G161" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E162" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G162" t="s">
         <v>181</v>
@@ -4455,19 +4455,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D163" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E163" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G163" t="s">
         <v>181</v>
@@ -4475,19 +4475,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D164" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E164" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G164" t="s">
         <v>181</v>
@@ -4495,19 +4495,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E165" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G165" t="s">
         <v>181</v>
@@ -4515,19 +4515,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D166" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G166" t="s">
         <v>181</v>
@@ -4535,19 +4535,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D167" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E167" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G167" t="s">
         <v>181</v>
@@ -4555,19 +4555,19 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D168" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E168" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G168" t="s">
         <v>181</v>
@@ -4575,19 +4575,19 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D169" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E169" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G169" t="s">
         <v>181</v>
@@ -4595,19 +4595,19 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D170" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E170" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G170" t="s">
         <v>181</v>
@@ -4615,128 +4615,170 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D171" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E171" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G171" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D172" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E172" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G172" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D173" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E173" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G173" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D174" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E174" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G174" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E175" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G175" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176">
+        <v>50</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>222</v>
+      </c>
+      <c r="D176" t="s">
+        <v>223</v>
+      </c>
+      <c r="E176" t="s">
+        <v>261</v>
+      </c>
+      <c r="G176" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>51</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>226</v>
+      </c>
+      <c r="D177" t="s">
+        <v>227</v>
+      </c>
+      <c r="E177" t="s">
+        <v>261</v>
+      </c>
+      <c r="G177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178">
         <v>52</v>
       </c>
-      <c r="B176">
+      <c r="B178">
         <v>2</v>
       </c>
-      <c r="C176" t="s">
-        <v>250</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C178" t="s">
+        <v>248</v>
+      </c>
+      <c r="D178" t="s">
         <v>233</v>
       </c>
-      <c r="E176" t="s">
-        <v>267</v>
-      </c>
-      <c r="G176" t="s">
+      <c r="E178" t="s">
+        <v>263</v>
+      </c>
+      <c r="G178" t="s">
         <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E128" r:id="rId1" xr:uid="{14B7DA4D-3D81-4CAD-86E6-D6779618073B}"/>
+    <hyperlink ref="E150" r:id="rId2" xr:uid="{7B596219-C417-41CE-8BD0-5EB9AB975E64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/PCB/PartsList.xlsx
+++ b/PCB/PartsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4119af336ac6e8a0/Documents/GitHub/ECE_477/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:40009_{97378B5F-89DF-4BBF-9C18-42DAEEB739BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89DA98D7-E93C-453C-A648-770BFD5EDBF2}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:40009_{97378B5F-89DF-4BBF-9C18-42DAEEB739BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37DC41D1-1399-4AC9-B517-98AA66F960A1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="2377" windowWidth="11820" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -874,13 +874,13 @@
     <t>https://www.digikey.com/en/products/detail/yageo/RC0201FR-07100KL/1948859</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0201FR-0735K7L?qs=1s%252BlIcjv25vUGlcpq10KvA%3D%3D</t>
-  </si>
-  <si>
     <t>1uH</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/vishay-dale/IHLP1212BZER1R0M11/2273368?s=N4IgTCBcDaIJIAkAyAFAjGDAhAWgUQCU0CAGAWTTRAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW060334K8FKEA/1174842</t>
   </si>
 </sst>
 </file>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D122" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4070,10 +4070,10 @@
         <v>98</v>
       </c>
       <c r="D143" t="s">
+        <v>284</v>
+      </c>
+      <c r="E143" t="s">
         <v>285</v>
-      </c>
-      <c r="E143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="s">
         <v>101</v>
@@ -4132,7 +4132,7 @@
       <c r="D146" t="s">
         <v>114</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>264</v>
       </c>
       <c r="G146" t="s">
@@ -4226,8 +4226,8 @@
       <c r="D151" t="s">
         <v>131</v>
       </c>
-      <c r="E151" t="s">
-        <v>284</v>
+      <c r="E151" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="G151" t="s">
         <v>116</v>
@@ -4777,8 +4777,10 @@
   <hyperlinks>
     <hyperlink ref="E128" r:id="rId1" xr:uid="{14B7DA4D-3D81-4CAD-86E6-D6779618073B}"/>
     <hyperlink ref="E150" r:id="rId2" xr:uid="{7B596219-C417-41CE-8BD0-5EB9AB975E64}"/>
+    <hyperlink ref="E151" r:id="rId3" xr:uid="{2BB61B32-FDA0-4203-BA91-A163AD5AD0E2}"/>
+    <hyperlink ref="E146" r:id="rId4" xr:uid="{E4D983E5-9372-4A24-8600-0C215BEB1A4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/PCB/PartsList.xlsx
+++ b/PCB/PartsList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4119af336ac6e8a0/Documents/GitHub/ECE_477/PCB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanb\source\repos\ECE_477\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:40009_{97378B5F-89DF-4BBF-9C18-42DAEEB739BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37DC41D1-1399-4AC9-B517-98AA66F960A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0B0DB-3FDC-4236-8962-99B1A3CF4696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="2377" windowWidth="11820" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="289">
   <si>
     <t>Source:</t>
   </si>
@@ -881,6 +881,12 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW060334K8FKEA/1174842</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kyocera-avx/SD1206S040S2R0/3749537</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bel-fuse-inc/0ZCJ0050FF2G/4156133?s=N4IgTCBcDaIAwC0DCApOcCscBi2wHEQBdAXyA</t>
   </si>
 </sst>
 </file>
@@ -1735,19 +1741,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.53125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="61.19921875" customWidth="1"/>
+    <col min="7" max="7" width="61.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>44851.564976851849</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1787,12 +1793,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>35</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>43</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>49</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>51</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>52</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>55</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>56</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>57</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>63</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>68</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>72</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>76</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>78</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>80</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>88</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>89</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>90</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>94</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>98</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>102</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>107</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>108</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>113</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>117</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>118</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>119</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>120</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>122</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>124</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>125</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>126</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>128</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>129</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>130</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>132</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>134</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>135</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>137</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>138</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>139</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>140</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>143</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>144</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>145</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>146</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>147</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>148</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>150</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>152</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>153</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>154</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>155</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>156</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>157</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>158</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>159</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>160</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>161</v>
       </c>
@@ -3204,7 +3210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>162</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>163</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>164</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>165</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>166</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>167</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>171</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>172</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>174</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>178</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>182</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>184</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>186</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>188</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>190</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>192</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>194</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>196</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>198</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>200</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>202</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>210</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>215</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>222</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>226</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>232</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>236</v>
       </c>
@@ -3684,12 +3690,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>1</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>1</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>7</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>8</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>9</v>
       </c>
@@ -3919,11 +3925,14 @@
       <c r="D134" t="s">
         <v>64</v>
       </c>
+      <c r="E134" t="s">
+        <v>287</v>
+      </c>
       <c r="G134" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>10</v>
       </c>
@@ -3936,11 +3945,14 @@
       <c r="D135" t="s">
         <v>69</v>
       </c>
+      <c r="E135" t="s">
+        <v>261</v>
+      </c>
       <c r="G135" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>11</v>
       </c>
@@ -3953,11 +3965,14 @@
       <c r="D136" t="s">
         <v>73</v>
       </c>
+      <c r="E136" t="s">
+        <v>261</v>
+      </c>
       <c r="G136" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>12</v>
       </c>
@@ -3970,11 +3985,14 @@
       <c r="D137" t="s">
         <v>77</v>
       </c>
+      <c r="E137" t="s">
+        <v>261</v>
+      </c>
       <c r="G137" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13</v>
       </c>
@@ -3987,11 +4005,14 @@
       <c r="D138" t="s">
         <v>79</v>
       </c>
+      <c r="E138" t="s">
+        <v>261</v>
+      </c>
       <c r="G138" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4004,11 +4025,14 @@
       <c r="D139" t="s">
         <v>81</v>
       </c>
+      <c r="E139" t="s">
+        <v>288</v>
+      </c>
       <c r="G139" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>15</v>
       </c>
@@ -4021,11 +4045,14 @@
       <c r="D140" t="s">
         <v>85</v>
       </c>
+      <c r="E140" t="s">
+        <v>261</v>
+      </c>
       <c r="G140" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>16</v>
       </c>
@@ -4042,7 +4069,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>17</v>
       </c>
@@ -4059,7 +4086,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>18</v>
       </c>
@@ -4079,7 +4106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>19</v>
       </c>
@@ -4099,7 +4126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>20</v>
       </c>
@@ -4119,7 +4146,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>21</v>
       </c>
@@ -4139,7 +4166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>22</v>
       </c>
@@ -4159,7 +4186,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>23</v>
       </c>
@@ -4179,7 +4206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>1</v>
       </c>
@@ -4196,7 +4223,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>1</v>
       </c>
@@ -4213,7 +4240,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>25</v>
       </c>
@@ -4233,7 +4260,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>26</v>
       </c>
@@ -4253,7 +4280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>27</v>
       </c>
@@ -4273,7 +4300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>28</v>
       </c>
@@ -4293,7 +4320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>29</v>
       </c>
@@ -4313,7 +4340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>30</v>
       </c>
@@ -4333,7 +4360,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>31</v>
       </c>
@@ -4353,7 +4380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>32</v>
       </c>
@@ -4373,7 +4400,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>33</v>
       </c>
@@ -4393,7 +4420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>34</v>
       </c>
@@ -4413,7 +4440,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>35</v>
       </c>
@@ -4433,7 +4460,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>36</v>
       </c>
@@ -4453,7 +4480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>37</v>
       </c>
@@ -4473,7 +4500,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>38</v>
       </c>
@@ -4493,7 +4520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>39</v>
       </c>
@@ -4513,7 +4540,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>40</v>
       </c>
@@ -4533,7 +4560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>41</v>
       </c>
@@ -4553,7 +4580,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>42</v>
       </c>
@@ -4573,7 +4600,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>43</v>
       </c>
@@ -4593,7 +4620,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>44</v>
       </c>
@@ -4613,7 +4640,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>45</v>
       </c>
@@ -4633,7 +4660,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>46</v>
       </c>
@@ -4653,7 +4680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>47</v>
       </c>
@@ -4673,7 +4700,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>48</v>
       </c>
@@ -4693,7 +4720,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>49</v>
       </c>
@@ -4713,7 +4740,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>50</v>
       </c>
@@ -4733,7 +4760,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>51</v>
       </c>
@@ -4753,7 +4780,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>52</v>
       </c>

--- a/PCB/PartsList.xlsx
+++ b/PCB/PartsList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanb\source\repos\ECE_477\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\source\repos\ECE_477\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0B0DB-3FDC-4236-8962-99B1A3CF4696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1C331-D698-4D8B-A97A-099D622873EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="291">
   <si>
     <t>Source:</t>
   </si>
@@ -887,6 +887,12 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/bel-fuse-inc/0ZCJ0050FF2G/4156133?s=N4IgTCBcDaIAwC0DCApOcCscBi2wHEQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0473460001/1782470?s=N4IgTCBcDaILYHsA2BTAHgAgCwHYDMWAbALQAM5AjCALoC%2BQA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/S2B-PH-K-S-LF-SN/926626</t>
   </si>
 </sst>
 </file>
@@ -1741,19 +1747,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="61.21875" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>44851.564976851849</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1793,12 +1799,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>28</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>29</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>35</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>38</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>43</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>46</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>49</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>50</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>51</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>52</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>55</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>56</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>57</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>63</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>68</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>72</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>76</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>78</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>80</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>88</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>89</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>90</v>
       </c>
@@ -2496,7 +2502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>94</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>98</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>102</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>107</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>108</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>113</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>117</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>118</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>119</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>120</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>122</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>124</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>125</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>126</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>128</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>129</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>130</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>132</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>134</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>135</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>137</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>138</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>139</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>140</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>141</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>143</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>144</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>145</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>146</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>147</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>148</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>150</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>152</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>153</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>154</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>155</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>156</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>157</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>158</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>159</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>160</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>161</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>162</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>163</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>164</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>165</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>166</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>167</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>171</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>172</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>174</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>178</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>182</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>184</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>186</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>188</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>190</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>192</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>194</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>196</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>198</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>200</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>202</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>210</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>215</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>222</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>226</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>232</v>
       </c>
@@ -3673,7 +3679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>236</v>
       </c>
@@ -3690,12 +3696,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3728,14 +3734,14 @@
       <c r="D124" t="s">
         <v>21</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G124" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3748,14 +3754,14 @@
       <c r="D125" t="s">
         <v>26</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>252</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3768,14 +3774,14 @@
       <c r="D126" t="s">
         <v>30</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>250</v>
       </c>
       <c r="G126" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -3788,14 +3794,14 @@
       <c r="D127" t="s">
         <v>21</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>1</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>1</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3862,7 +3868,7 @@
       <c r="D131" t="s">
         <v>44</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>254</v>
       </c>
       <c r="G131" t="s">
@@ -3872,7 +3878,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7</v>
       </c>
@@ -3885,14 +3891,14 @@
       <c r="D132" t="s">
         <v>39</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>276</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
@@ -3905,14 +3911,14 @@
       <c r="D133" t="s">
         <v>59</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>256</v>
       </c>
       <c r="G133" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9</v>
       </c>
@@ -3925,14 +3931,14 @@
       <c r="D134" t="s">
         <v>64</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>287</v>
       </c>
       <c r="G134" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>10</v>
       </c>
@@ -3952,7 +3958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>11</v>
       </c>
@@ -3972,7 +3978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4025,14 +4031,14 @@
       <c r="D139" t="s">
         <v>81</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>288</v>
       </c>
       <c r="G139" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>15</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>16</v>
       </c>
@@ -4065,11 +4071,14 @@
       <c r="D141" t="s">
         <v>91</v>
       </c>
+      <c r="E141" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="G141" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>17</v>
       </c>
@@ -4082,11 +4091,14 @@
       <c r="D142" t="s">
         <v>95</v>
       </c>
+      <c r="E142" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="G142" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>18</v>
       </c>
@@ -4099,14 +4111,14 @@
       <c r="D143" t="s">
         <v>284</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>285</v>
       </c>
       <c r="G143" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>19</v>
       </c>
@@ -4119,14 +4131,14 @@
       <c r="D144" t="s">
         <v>103</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>275</v>
       </c>
       <c r="G144" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20</v>
       </c>
@@ -4139,14 +4151,14 @@
       <c r="D145" t="s">
         <v>109</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>257</v>
       </c>
       <c r="G145" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>21</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>22</v>
       </c>
@@ -4179,14 +4191,14 @@
       <c r="D147" t="s">
         <v>121</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>265</v>
       </c>
       <c r="G147" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>23</v>
       </c>
@@ -4199,14 +4211,14 @@
       <c r="D148" t="s">
         <v>123</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>266</v>
       </c>
       <c r="G148" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>1</v>
       </c>
@@ -4216,14 +4228,14 @@
       <c r="D149" t="s">
         <v>127</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>267</v>
       </c>
       <c r="G149" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>1</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>25</v>
       </c>
@@ -4260,7 +4272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>26</v>
       </c>
@@ -4273,14 +4285,14 @@
       <c r="D152" t="s">
         <v>133</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>268</v>
       </c>
       <c r="G152" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>27</v>
       </c>
@@ -4293,14 +4305,14 @@
       <c r="D153" t="s">
         <v>136</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G153" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>28</v>
       </c>
@@ -4313,14 +4325,14 @@
       <c r="D154">
         <v>470</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>270</v>
       </c>
       <c r="G154" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>29</v>
       </c>
@@ -4333,14 +4345,14 @@
       <c r="D155" t="s">
         <v>142</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>271</v>
       </c>
       <c r="G155" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>30</v>
       </c>
@@ -4353,14 +4365,14 @@
       <c r="D156" t="s">
         <v>149</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>272</v>
       </c>
       <c r="G156" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>31</v>
       </c>
@@ -4373,14 +4385,14 @@
       <c r="D157" t="s">
         <v>151</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G157" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>32</v>
       </c>
@@ -4393,14 +4405,14 @@
       <c r="D158">
         <v>22</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>274</v>
       </c>
       <c r="G158" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>33</v>
       </c>
@@ -4413,14 +4425,14 @@
       <c r="D159" t="s">
         <v>168</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G159" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>34</v>
       </c>
@@ -4433,14 +4445,14 @@
       <c r="D160" t="s">
         <v>168</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G160" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>35</v>
       </c>
@@ -4453,14 +4465,14 @@
       <c r="D161" t="s">
         <v>175</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>258</v>
       </c>
       <c r="G161" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>36</v>
       </c>
@@ -4480,7 +4492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>37</v>
       </c>
@@ -4500,7 +4512,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -4520,7 +4532,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>39</v>
       </c>
@@ -4540,7 +4552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>40</v>
       </c>
@@ -4560,7 +4572,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>41</v>
       </c>
@@ -4580,7 +4592,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>42</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>43</v>
       </c>
@@ -4620,7 +4632,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>44</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>45</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>46</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>47</v>
       </c>
@@ -4700,7 +4712,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>48</v>
       </c>
@@ -4713,14 +4725,14 @@
       <c r="D174" t="s">
         <v>211</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G174" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>49</v>
       </c>
@@ -4740,7 +4752,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>50</v>
       </c>
@@ -4760,7 +4772,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>51</v>
       </c>
@@ -4780,7 +4792,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>52</v>
       </c>
@@ -4793,7 +4805,7 @@
       <c r="D178" t="s">
         <v>233</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="2" t="s">
         <v>263</v>
       </c>
       <c r="G178" t="s">
@@ -4806,8 +4818,39 @@
     <hyperlink ref="E150" r:id="rId2" xr:uid="{7B596219-C417-41CE-8BD0-5EB9AB975E64}"/>
     <hyperlink ref="E151" r:id="rId3" xr:uid="{2BB61B32-FDA0-4203-BA91-A163AD5AD0E2}"/>
     <hyperlink ref="E146" r:id="rId4" xr:uid="{E4D983E5-9372-4A24-8600-0C215BEB1A4B}"/>
+    <hyperlink ref="E129" r:id="rId5" xr:uid="{75F85F68-2E3A-4CE1-B837-AB60A7B7CAF4}"/>
+    <hyperlink ref="E130" r:id="rId6" xr:uid="{47CA01CC-CD97-4620-A7A4-77015384738F}"/>
+    <hyperlink ref="E174" r:id="rId7" xr:uid="{33DF06ED-102D-4281-8BAB-3FBF5F2DD4A8}"/>
+    <hyperlink ref="E124" r:id="rId8" xr:uid="{3FE3372C-4130-428C-8146-6E1A75579178}"/>
+    <hyperlink ref="E125" r:id="rId9" xr:uid="{FE4DD46C-AA10-43F9-9DC3-C32037CBB54A}"/>
+    <hyperlink ref="E126" r:id="rId10" xr:uid="{7C4598FF-E202-462B-ADED-115B65AB2F41}"/>
+    <hyperlink ref="E127" r:id="rId11" xr:uid="{1FF9D0DB-122E-4E85-A719-D0B281DC569C}"/>
+    <hyperlink ref="E131" r:id="rId12" xr:uid="{3C950E70-4482-4C66-B575-06BE24EAE434}"/>
+    <hyperlink ref="E132" r:id="rId13" xr:uid="{EE72DD25-12DC-4145-97EB-2DF7E6C2C431}"/>
+    <hyperlink ref="E133" r:id="rId14" xr:uid="{43CD8748-9253-4FE1-9AF2-57177366E6A4}"/>
+    <hyperlink ref="E134" r:id="rId15" xr:uid="{75A15EED-57BA-4222-8C38-A8DC0AEC74AD}"/>
+    <hyperlink ref="E139" r:id="rId16" xr:uid="{77D53C36-520B-4E85-8C26-1209B3F17AB5}"/>
+    <hyperlink ref="E141" r:id="rId17" xr:uid="{2D5EE0D3-4E18-4B99-AFEB-82A1B4C62A44}"/>
+    <hyperlink ref="E142" r:id="rId18" xr:uid="{187C17B7-0B0A-4F2F-ADFD-25B8B84DE707}"/>
+    <hyperlink ref="E143" r:id="rId19" xr:uid="{D6A92EE5-9C25-4C50-9D07-F4C8FAD5D765}"/>
+    <hyperlink ref="E144" r:id="rId20" xr:uid="{C6068AB0-1D27-4E23-938E-B527695A1E77}"/>
+    <hyperlink ref="E145" r:id="rId21" xr:uid="{D5491092-8DF6-4109-A299-3449FE2BDA45}"/>
+    <hyperlink ref="E147" r:id="rId22" xr:uid="{E67B7883-0E5B-4222-B444-F0C6C49D4842}"/>
+    <hyperlink ref="E148" r:id="rId23" xr:uid="{F9A1B803-D067-4442-9464-41768CDE0FA8}"/>
+    <hyperlink ref="E149" r:id="rId24" xr:uid="{C8859AAD-DE43-4B9A-9F39-042AD80C20B0}"/>
+    <hyperlink ref="E152" r:id="rId25" xr:uid="{69F118BB-32C4-47D8-A383-7143E116646F}"/>
+    <hyperlink ref="E153" r:id="rId26" xr:uid="{B53AD657-4118-443A-90A5-6366FED51C47}"/>
+    <hyperlink ref="E154" r:id="rId27" xr:uid="{41163331-6CD3-45DD-8183-80E2C9ED60C4}"/>
+    <hyperlink ref="E155" r:id="rId28" xr:uid="{8FD18936-01DF-4587-BC0B-40DE16320A8E}"/>
+    <hyperlink ref="E156" r:id="rId29" xr:uid="{9F7664C4-A933-40F3-9D21-7D7E7142B606}"/>
+    <hyperlink ref="E157" r:id="rId30" xr:uid="{DDD9A484-C53E-485C-9A99-219FA7BBF094}"/>
+    <hyperlink ref="E158" r:id="rId31" xr:uid="{E38B72A8-6AB2-4896-BF02-63B897A8AC33}"/>
+    <hyperlink ref="E159" r:id="rId32" xr:uid="{A9BA3CF4-E50C-46A9-AE2A-BCC663A466D8}"/>
+    <hyperlink ref="E160" r:id="rId33" xr:uid="{205C70A7-A94F-43BF-9F2C-224A1EC9E703}"/>
+    <hyperlink ref="E161" r:id="rId34" xr:uid="{61B174F3-3247-4F04-BB85-C5134F38E889}"/>
+    <hyperlink ref="E178" r:id="rId35" xr:uid="{D03565B2-DB65-4C79-9DEF-0886C9EB17DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>